--- a/template.xlsx
+++ b/template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t xml:space="preserve">Приложение 26</t>
   </si>
@@ -40,6 +40,9 @@
     <t xml:space="preserve">Организация (индивидуальный предприниматель)</t>
   </si>
   <si>
+    <t xml:space="preserve">ТОО "Granda Group"</t>
+  </si>
+  <si>
     <t xml:space="preserve">ИИН/БИН</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">Товарно-транспортная накладная (номер, дата)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исраилова Нилюфар</t>
   </si>
   <si>
     <t xml:space="preserve">Номер по порядку</t>
@@ -117,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Исраилова Н.Е.</t>
   </si>
   <si>
     <t xml:space="preserve">По доверенности</t>
@@ -162,7 +171,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.00"/>
     <numFmt numFmtId="170" formatCode="0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -205,6 +214,12 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -229,6 +244,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -369,19 +389,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -393,19 +413,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -417,6 +437,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -481,6 +505,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -509,7 +537,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -592,8 +620,8 @@
   </sheetPr>
   <dimension ref="A1:AW38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AY28" activeCellId="0" sqref="AY28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U40" activeCellId="0" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="10.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,7 +638,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="1.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="3.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="39" style="1" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="39" style="1" width="3.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="4.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="43" style="1" width="3.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="3.26"/>
   </cols>
   <sheetData>
@@ -818,7 +848,9 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -845,11 +877,13 @@
       <c r="AL9" s="0"/>
       <c r="AM9" s="0"/>
       <c r="AN9" s="11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" s="0"/>
       <c r="AP9" s="12"/>
-      <c r="AQ9" s="13"/>
+      <c r="AQ9" s="13" t="n">
+        <v>210640007349</v>
+      </c>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
@@ -901,13 +935,13 @@
       <c r="AN12" s="14"/>
       <c r="AO12" s="14"/>
       <c r="AP12" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ12" s="15"/>
       <c r="AR12" s="15"/>
       <c r="AS12" s="15"/>
       <c r="AT12" s="15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
@@ -955,15 +989,11 @@
       <c r="AM13" s="16"/>
       <c r="AN13" s="16"/>
       <c r="AO13" s="16"/>
-      <c r="AP13" s="17" t="n">
-        <v>71</v>
-      </c>
+      <c r="AP13" s="17"/>
       <c r="AQ13" s="17"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
-      <c r="AT13" s="18" t="n">
-        <v>44364</v>
-      </c>
+      <c r="AT13" s="18"/>
       <c r="AU13" s="18"/>
       <c r="AV13" s="18"/>
       <c r="AW13" s="18"/>
@@ -984,7 +1014,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1037,7 +1067,7 @@
     </row>
     <row r="18" s="21" customFormat="true" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -1050,7 +1080,7 @@
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
@@ -1063,7 +1093,7 @@
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
       <c r="W18" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
@@ -1074,7 +1104,7 @@
       <c r="AD18" s="20"/>
       <c r="AE18" s="20"/>
       <c r="AF18" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG18" s="20"/>
       <c r="AH18" s="20"/>
@@ -1085,7 +1115,7 @@
       <c r="AM18" s="20"/>
       <c r="AN18" s="20"/>
       <c r="AO18" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP18" s="20"/>
       <c r="AQ18" s="20"/>
@@ -1096,18 +1126,20 @@
       <c r="AV18" s="20"/>
       <c r="AW18" s="20"/>
     </row>
-    <row r="19" s="22" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+    <row r="19" s="23" customFormat="true" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
@@ -1119,15 +1151,17 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
+      <c r="W19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
+      <c r="AA19" s="22"/>
+      <c r="AB19" s="22"/>
+      <c r="AC19" s="22"/>
+      <c r="AD19" s="22"/>
+      <c r="AE19" s="22"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
       <c r="AH19" s="20"/>
@@ -1148,13 +1182,13 @@
       <c r="AW19" s="20"/>
     </row>
     <row r="20" s="1" customFormat="true" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" s="24" customFormat="true" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" s="25" customFormat="true" ht="16.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1168,19 +1202,19 @@
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P21" s="20"/>
       <c r="Q21" s="20"/>
       <c r="R21" s="20"/>
       <c r="S21" s="20"/>
-      <c r="T21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
+      <c r="T21" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
       <c r="W21" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
@@ -1191,7 +1225,7 @@
       <c r="AD21" s="20"/>
       <c r="AE21" s="20"/>
       <c r="AF21" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AG21" s="20"/>
       <c r="AH21" s="20"/>
@@ -1199,7 +1233,7 @@
       <c r="AJ21" s="20"/>
       <c r="AK21" s="20"/>
       <c r="AL21" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM21" s="20"/>
       <c r="AN21" s="20"/>
@@ -1207,7 +1241,7 @@
       <c r="AP21" s="20"/>
       <c r="AQ21" s="20"/>
       <c r="AR21" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS21" s="20"/>
       <c r="AT21" s="20"/>
@@ -1215,7 +1249,7 @@
       <c r="AV21" s="20"/>
       <c r="AW21" s="20"/>
     </row>
-    <row r="22" s="24" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" s="25" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -1235,18 +1269,18 @@
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
       <c r="S22" s="20"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
       <c r="W22" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC22" s="20"/>
       <c r="AD22" s="20"/>
@@ -1271,131 +1305,131 @@
       <c r="AW22" s="20"/>
     </row>
     <row r="23" s="1" customFormat="true" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+      <c r="A23" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25" t="n">
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25" t="n">
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="26" t="n">
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="25" t="n">
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
-      <c r="AB23" s="25" t="n">
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="25" t="n">
+      <c r="AC23" s="26"/>
+      <c r="AD23" s="26"/>
+      <c r="AE23" s="26"/>
+      <c r="AF23" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25" t="n">
+      <c r="AG23" s="26"/>
+      <c r="AH23" s="26"/>
+      <c r="AI23" s="26"/>
+      <c r="AJ23" s="26"/>
+      <c r="AK23" s="26"/>
+      <c r="AL23" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
-      <c r="AQ23" s="25"/>
-      <c r="AR23" s="25" t="n">
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="26"/>
+      <c r="AO23" s="26"/>
+      <c r="AP23" s="26"/>
+      <c r="AQ23" s="26"/>
+      <c r="AR23" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="AS23" s="25"/>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="25"/>
-      <c r="AV23" s="25"/>
-      <c r="AW23" s="25"/>
-    </row>
-    <row r="24" s="24" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="n">
+      <c r="AS23" s="26"/>
+      <c r="AT23" s="26"/>
+      <c r="AU23" s="26"/>
+      <c r="AV23" s="26"/>
+      <c r="AW23" s="26"/>
+    </row>
+    <row r="24" s="25" customFormat="true" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28" t="n">
+      <c r="B24" s="26"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="29"/>
-      <c r="AA24" s="29"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="29"/>
-      <c r="AE24" s="29"/>
-      <c r="AF24" s="30"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="30"/>
-      <c r="AL24" s="30" t="n">
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="31"/>
+      <c r="AI24" s="31"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="31"/>
+      <c r="AL24" s="31" t="n">
         <f aca="false">AB24*AF24</f>
         <v>0</v>
       </c>
-      <c r="AM24" s="30"/>
-      <c r="AN24" s="30"/>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="31"/>
-      <c r="AS24" s="31"/>
-      <c r="AT24" s="31"/>
-      <c r="AU24" s="31"/>
-      <c r="AV24" s="31"/>
-      <c r="AW24" s="31"/>
+      <c r="AM24" s="31"/>
+      <c r="AN24" s="31"/>
+      <c r="AO24" s="31"/>
+      <c r="AP24" s="31"/>
+      <c r="AQ24" s="31"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0"/>
@@ -1420,40 +1454,40 @@
       <c r="T25" s="0"/>
       <c r="U25" s="0"/>
       <c r="V25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="30" t="n">
+        <v>27</v>
+      </c>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="33"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="33"/>
+      <c r="AF25" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG25" s="34"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34"/>
+      <c r="AJ25" s="34"/>
+      <c r="AK25" s="34"/>
+      <c r="AL25" s="31" t="n">
         <f aca="false">SUM(AL24)</f>
         <v>0</v>
       </c>
-      <c r="AM25" s="30"/>
-      <c r="AN25" s="30"/>
-      <c r="AO25" s="30"/>
-      <c r="AP25" s="30"/>
-      <c r="AQ25" s="30"/>
-      <c r="AR25" s="31"/>
-      <c r="AS25" s="31"/>
-      <c r="AT25" s="31"/>
-      <c r="AU25" s="31"/>
-      <c r="AV25" s="31"/>
-      <c r="AW25" s="31"/>
+      <c r="AM25" s="31"/>
+      <c r="AN25" s="31"/>
+      <c r="AO25" s="31"/>
+      <c r="AP25" s="31"/>
+      <c r="AQ25" s="31"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
@@ -1469,7 +1503,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="34"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
       <c r="Q26" s="0"/>
@@ -1486,7 +1520,7 @@
       <c r="AB26" s="0"/>
       <c r="AC26" s="0"/>
       <c r="AD26" s="0"/>
-      <c r="AE26" s="34"/>
+      <c r="AE26" s="35"/>
       <c r="AF26" s="0"/>
       <c r="AG26" s="0"/>
       <c r="AH26" s="0"/>
@@ -1508,7 +1542,7 @@
     </row>
     <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1522,62 +1556,62 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="X27" s="36"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36"/>
-      <c r="AE27" s="35"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="35"/>
-      <c r="AH27" s="35"/>
-      <c r="AI27" s="35"/>
-      <c r="AJ27" s="35"/>
-      <c r="AK27" s="35"/>
-      <c r="AL27" s="35"/>
-      <c r="AM27" s="35"/>
-      <c r="AN27" s="35"/>
-      <c r="AO27" s="35"/>
-      <c r="AP27" s="35"/>
-      <c r="AQ27" s="35"/>
-      <c r="AR27" s="35"/>
-      <c r="AS27" s="35"/>
-      <c r="AT27" s="35"/>
-      <c r="AU27" s="35"/>
-      <c r="AV27" s="35"/>
-      <c r="AW27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="36"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="36"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+      <c r="AM27" s="36"/>
+      <c r="AN27" s="36"/>
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="36"/>
+      <c r="AQ27" s="36"/>
+      <c r="AR27" s="36"/>
+      <c r="AS27" s="36"/>
+      <c r="AT27" s="36"/>
+      <c r="AU27" s="36"/>
+      <c r="AV27" s="36"/>
+      <c r="AW27" s="36"/>
     </row>
     <row r="29" customFormat="false" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
       <c r="D29" s="0"/>
       <c r="E29" s="0"/>
-      <c r="F29" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="F29" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
       <c r="K29" s="14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
@@ -1585,68 +1619,70 @@
       <c r="O29" s="0"/>
       <c r="P29" s="0"/>
       <c r="Q29" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="38"/>
+        <v>33</v>
+      </c>
+      <c r="R29" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
+      <c r="U29" s="39"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="39"/>
+      <c r="Y29" s="40"/>
       <c r="Z29" s="0"/>
       <c r="AA29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AB29" s="0"/>
       <c r="AC29" s="0"/>
       <c r="AD29" s="0"/>
       <c r="AE29" s="0"/>
-      <c r="AF29" s="39"/>
-      <c r="AG29" s="39"/>
-      <c r="AH29" s="39"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
-      <c r="AK29" s="39"/>
-      <c r="AL29" s="39"/>
-      <c r="AM29" s="39"/>
-      <c r="AN29" s="39"/>
-      <c r="AO29" s="39"/>
-      <c r="AP29" s="39"/>
-      <c r="AQ29" s="39"/>
-      <c r="AR29" s="39"/>
-      <c r="AS29" s="39"/>
-      <c r="AT29" s="39"/>
-      <c r="AU29" s="39"/>
-      <c r="AV29" s="39"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="41"/>
+      <c r="AI29" s="41"/>
+      <c r="AJ29" s="41"/>
+      <c r="AK29" s="41"/>
+      <c r="AL29" s="41"/>
+      <c r="AM29" s="41"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="41"/>
+      <c r="AS29" s="41"/>
+      <c r="AT29" s="41"/>
+      <c r="AU29" s="41"/>
+      <c r="AV29" s="41"/>
       <c r="AW29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="10.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="L30" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="R30" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40"/>
-      <c r="Y30" s="38"/>
+      <c r="F30" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="L30" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="R30" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="40"/>
     </row>
     <row r="31" customFormat="false" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="0"/>
@@ -1673,144 +1709,144 @@
       <c r="V31" s="0"/>
       <c r="W31" s="0"/>
       <c r="X31" s="0"/>
-      <c r="Y31" s="38"/>
+      <c r="Y31" s="40"/>
       <c r="Z31" s="0"/>
       <c r="AA31" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AB31" s="0"/>
       <c r="AC31" s="0"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="39"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
-      <c r="AK31" s="39"/>
-      <c r="AL31" s="39"/>
-      <c r="AM31" s="39"/>
-      <c r="AN31" s="39"/>
-      <c r="AO31" s="39"/>
-      <c r="AP31" s="39"/>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="39"/>
+      <c r="AD31" s="41"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+      <c r="AP31" s="41"/>
+      <c r="AQ31" s="41"/>
+      <c r="AR31" s="41"/>
+      <c r="AS31" s="41"/>
+      <c r="AT31" s="41"/>
+      <c r="AU31" s="41"/>
+      <c r="AV31" s="41"/>
       <c r="AW31" s="0"/>
     </row>
     <row r="32" s="1" customFormat="true" ht="8.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Y32" s="38"/>
+      <c r="Y32" s="40"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
+      <c r="AD32" s="43"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="43"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="43"/>
+      <c r="AI32" s="43"/>
+      <c r="AJ32" s="43"/>
+      <c r="AK32" s="43"/>
+      <c r="AL32" s="43"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="43"/>
+      <c r="AO32" s="43"/>
+      <c r="AP32" s="43"/>
+      <c r="AQ32" s="43"/>
+      <c r="AR32" s="43"/>
+      <c r="AS32" s="43"/>
+      <c r="AT32" s="43"/>
+      <c r="AU32" s="43"/>
+      <c r="AV32" s="43"/>
     </row>
     <row r="33" s="1" customFormat="true" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
+        <v>40</v>
+      </c>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
       <c r="K33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="36"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
-      <c r="Y33" s="38"/>
+      <c r="Y33" s="40"/>
       <c r="Z33" s="4"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="43"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="43"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="43"/>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="43"/>
-      <c r="AI33" s="43"/>
-      <c r="AJ33" s="43"/>
-      <c r="AK33" s="43"/>
-      <c r="AL33" s="43"/>
-      <c r="AM33" s="43"/>
-      <c r="AN33" s="43"/>
-      <c r="AO33" s="43"/>
-      <c r="AP33" s="43"/>
-      <c r="AQ33" s="43"/>
-      <c r="AR33" s="43"/>
-      <c r="AS33" s="43"/>
-      <c r="AT33" s="43"/>
-      <c r="AU33" s="43"/>
-      <c r="AV33" s="43"/>
+      <c r="AA33" s="45"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="45"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="45"/>
+      <c r="AH33" s="45"/>
+      <c r="AI33" s="45"/>
+      <c r="AJ33" s="45"/>
+      <c r="AK33" s="45"/>
+      <c r="AL33" s="45"/>
+      <c r="AM33" s="45"/>
+      <c r="AN33" s="45"/>
+      <c r="AO33" s="45"/>
+      <c r="AP33" s="45"/>
+      <c r="AQ33" s="45"/>
+      <c r="AR33" s="45"/>
+      <c r="AS33" s="45"/>
+      <c r="AT33" s="45"/>
+      <c r="AU33" s="45"/>
+      <c r="AV33" s="45"/>
     </row>
     <row r="34" customFormat="false" ht="10.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F34" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="40"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="38"/>
+      <c r="F34" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="40"/>
     </row>
     <row r="35" customFormat="false" ht="10.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="45" t="s">
-        <v>39</v>
+      <c r="A35" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="X35" s="4"/>
-      <c r="Y35" s="38"/>
+      <c r="Y35" s="40"/>
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
@@ -1827,54 +1863,56 @@
     </row>
     <row r="36" s="1" customFormat="true" ht="8.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="X36" s="4"/>
-      <c r="Y36" s="38"/>
+      <c r="Y36" s="40"/>
     </row>
     <row r="37" customFormat="false" ht="11.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37" s="0"/>
       <c r="C37" s="0"/>
       <c r="D37" s="0"/>
       <c r="E37" s="0"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
       <c r="K37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L37" s="36"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="36"/>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
+        <v>33</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
       <c r="W37" s="8"/>
       <c r="X37" s="4"/>
-      <c r="Y37" s="38"/>
+      <c r="Y37" s="40"/>
       <c r="Z37" s="0"/>
       <c r="AA37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AB37" s="0"/>
       <c r="AC37" s="0"/>
       <c r="AD37" s="0"/>
       <c r="AE37" s="0"/>
-      <c r="AF37" s="42"/>
-      <c r="AG37" s="42"/>
-      <c r="AH37" s="42"/>
-      <c r="AI37" s="42"/>
-      <c r="AJ37" s="42"/>
+      <c r="AF37" s="44"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
       <c r="AK37" s="8"/>
       <c r="AL37" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AM37" s="8"/>
       <c r="AN37" s="8"/>
@@ -1889,51 +1927,51 @@
       <c r="AW37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="10.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F38" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="44"/>
-      <c r="Y38" s="38"/>
-      <c r="AF38" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="44"/>
-      <c r="AM38" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN38" s="40"/>
-      <c r="AO38" s="40"/>
-      <c r="AP38" s="40"/>
-      <c r="AQ38" s="40"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40"/>
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="40"/>
-      <c r="AV38" s="40"/>
+      <c r="F38" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="46"/>
+      <c r="L38" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="40"/>
+      <c r="AF38" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG38" s="42"/>
+      <c r="AH38" s="42"/>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="46"/>
+      <c r="AM38" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN38" s="42"/>
+      <c r="AO38" s="42"/>
+      <c r="AP38" s="42"/>
+      <c r="AQ38" s="42"/>
+      <c r="AR38" s="42"/>
+      <c r="AS38" s="42"/>
+      <c r="AT38" s="42"/>
+      <c r="AU38" s="42"/>
+      <c r="AV38" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="76">
